--- a/typecheck/benchmark/incremental_16/Abs{x,Tree{Add,[x..x]}}.BottomUpSometimesEagerSubst-10.Test-3.xlsx
+++ b/typecheck/benchmark/incremental_16/Abs{x,Tree{Add,[x..x]}}.BottomUpSometimesEagerSubst-10.Test-3.xlsx
@@ -450,10 +450,13 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
@@ -502,8 +505,8 @@
         <v>5.1766388888888804</v>
       </c>
       <c r="E2">
-        <f>C2/D2</f>
-        <v>0.57952661261329041</v>
+        <f>C$9/D2</f>
+        <v>12659.758852537328</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -536,8 +539,8 @@
         <v>5.2342777777777698</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E9" si="1">C3/D3</f>
-        <v>2.8657248691849708</v>
+        <f t="shared" ref="E3:E9" si="1">C$9/D3</f>
+        <v>12520.351953469139</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -571,7 +574,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>11.59047005795235</v>
+        <v>12056.848495998527</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -605,7 +608,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>40.31868450409776</v>
+        <v>10361.901917553123</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -639,7 +642,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>122.33102586928511</v>
+        <v>7836.7192378725322</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -673,7 +676,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>228.90700090215023</v>
+        <v>3663.3505016171957</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -707,7 +710,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>297.62215346978104</v>
+        <v>1190.5431134494354</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -762,7 +765,7 @@
     <row r="11" spans="1:10">
       <c r="E11">
         <f>SUM(E2:E8)/COUNTA(E2:E8)</f>
-        <v>100.60208375500926</v>
+        <v>8612.7820103567537</v>
       </c>
     </row>
   </sheetData>
